--- a/worklog.xlsx
+++ b/worklog.xlsx
@@ -1,38 +1,278 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="工作记录单" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>名称/关键词</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>日期/时间</t>
+  </si>
+  <si>
+    <t>持续时间（小时）</t>
+  </si>
+  <si>
+    <t>折合工日（自动计算）</t>
+  </si>
+  <si>
+    <t>具体内容</t>
+  </si>
+  <si>
+    <t>后续处理情况</t>
+  </si>
+  <si>
+    <t>额外工作量？</t>
+  </si>
+  <si>
+    <t>调整变更比率</t>
+  </si>
+  <si>
+    <t>备注1</t>
+  </si>
+  <si>
+    <t>备注2</t>
+  </si>
+  <si>
+    <t>Unnamed: 12</t>
+  </si>
+  <si>
+    <t>Unnamed: 13</t>
+  </si>
+  <si>
+    <t>Unnamed: 14</t>
+  </si>
+  <si>
+    <t>Unnamed: 15</t>
+  </si>
+  <si>
+    <t>Unnamed: 16</t>
+  </si>
+  <si>
+    <t>Unnamed: 17</t>
+  </si>
+  <si>
+    <t>Unnamed: 18</t>
+  </si>
+  <si>
+    <t>Unnamed: 19</t>
+  </si>
+  <si>
+    <t>Unnamed: 20</t>
+  </si>
+  <si>
+    <t>类型库</t>
+  </si>
+  <si>
+    <t>工日/持续时间</t>
+  </si>
+  <si>
+    <t>额外工作量</t>
+  </si>
+  <si>
+    <t>八昆、玉紫四回路线路入地（西郊线还建）</t>
+  </si>
+  <si>
+    <t>其他记录</t>
+  </si>
+  <si>
+    <t>校审</t>
+  </si>
+  <si>
+    <t>不适用</t>
+  </si>
+  <si>
+    <t>计划内</t>
+  </si>
+  <si>
+    <t>出版/记录</t>
+  </si>
+  <si>
+    <t>通胡110千伏线路改造入地</t>
+  </si>
+  <si>
+    <t>工程节点/记录</t>
+  </si>
+  <si>
+    <t>额外</t>
+  </si>
+  <si>
+    <t>工作记录单模板/表格制作</t>
+  </si>
+  <si>
+    <t>工作记录单模板制作</t>
+  </si>
+  <si>
+    <t>调整变更</t>
+  </si>
+  <si>
+    <t>python编程环境搭建</t>
+  </si>
+  <si>
+    <t>pycharm，python</t>
+  </si>
+  <si>
+    <t>会议/沟通</t>
+  </si>
+  <si>
+    <t>通州规划图</t>
+  </si>
+  <si>
+    <t>从恩德那儿拿到通州最新规划图纸</t>
+  </si>
+  <si>
+    <t>电话/沟通</t>
+  </si>
+  <si>
+    <t>方家村110kV送电</t>
+  </si>
+  <si>
+    <t>长缆电工科技股份有限公司询问配套电缆厂家信息。</t>
+  </si>
+  <si>
+    <t>长缆电工绝缘接头配杭州华新电缆。整理方家村物料情况，发给王恩德。</t>
+  </si>
+  <si>
+    <t>其他沟通</t>
+  </si>
+  <si>
+    <t>三营门220kV输变电</t>
+  </si>
+  <si>
+    <t>变电一次提资；110kVGIS从二层调到一层；10kV出线增加，220kV隧道出口要加10kV支架。</t>
+  </si>
+  <si>
+    <t>影响110kV站联电缆以及出线断面布置图。站联电缆长度可不调。出线布置图可不调。</t>
+  </si>
+  <si>
+    <t>站址范围变化后，东侧终端塔可能挪位。向沟道结构询问修改情况。</t>
+  </si>
+  <si>
+    <t>线路电气未修改，沟道结构未对应修改。等进一步消息。</t>
+  </si>
+  <si>
+    <t>根据评审记录要求修改</t>
+  </si>
+  <si>
+    <t>截面选型等系统；站东侧电缆布置等线路和沟道。</t>
+  </si>
+  <si>
+    <t>三营门测温光纤核减，给技经提资。</t>
+  </si>
+  <si>
+    <t>航天城110kV站扩建 竣工图</t>
+  </si>
+  <si>
+    <t>航天城110kV站扩建 竣工图完成提给恩德，走恩德的pw</t>
+  </si>
+  <si>
+    <t>增加工程记录统计；增加工作计划表。</t>
+  </si>
+  <si>
+    <t>首都新机场项目</t>
+  </si>
+  <si>
+    <t>01082216575电话咨询充油电缆应用情况及220高压电缆布置层间距。</t>
+  </si>
+  <si>
+    <t>肖家河110kV送电</t>
+  </si>
+  <si>
+    <t>技经调整。B版。送出版。</t>
+  </si>
+  <si>
+    <t>综合管廊</t>
+  </si>
+  <si>
+    <t>市基础设施建设公司征求综合管廊建设意见，请研提意见，周四下班前反馈，谢谢！通州文化旅游区万盛南街与朝阳东坝中路</t>
+  </si>
+  <si>
+    <t>通州文化园 万盛南街综合管廊核实。</t>
+  </si>
+  <si>
+    <t>临时任务</t>
+  </si>
+  <si>
+    <t>2016国网规范修订（电缆深度规定）</t>
+  </si>
+  <si>
+    <t>根据第一次讨论会意见修改初稿。</t>
+  </si>
+  <si>
+    <t>需整理格式，形成初步稿。部分内容需要参编单位配合共同编写。</t>
+  </si>
+  <si>
+    <t>光华路电力隧道</t>
+  </si>
+  <si>
+    <t>光华路电力隧道，国贸三期变电站出口处3通井形式修改为，双孔，2.9+2.3m。中隔墙走线。</t>
+  </si>
+  <si>
+    <t>海北三联供电厂至西北旺220kV电缆线路工程</t>
+  </si>
+  <si>
+    <t>校审。施工图。</t>
+  </si>
+  <si>
+    <t>＊＊输变电工程，</t>
+  </si>
+  <si>
+    <t>通，需要修改站址。</t>
+  </si>
+  <si>
+    <t>2016 / 07 / 13 01:21</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +280,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -339,13 +590,1259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>42533.375</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="s"/>
+      <c r="W2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>42533.41666666666</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="s"/>
+      <c r="W3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>42533</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="s"/>
+      <c r="W4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>42533</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="s"/>
+      <c r="W5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>42533</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="s"/>
+      <c r="W6" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>42533.625</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="s"/>
+      <c r="W7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>42533.63055555556</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="s"/>
+      <c r="W8" t="s"/>
+      <c r="X8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>42533.63194444445</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="s"/>
+      <c r="W9" t="s"/>
+      <c r="X9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>42533</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="s"/>
+      <c r="W10" t="s"/>
+      <c r="X10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>42533</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="s"/>
+      <c r="W11" t="s"/>
+      <c r="X11" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y11" t="s"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>42533.72916666666</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="s"/>
+      <c r="W12" t="s"/>
+      <c r="X12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="s"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>42534.375</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="s"/>
+      <c r="W13" t="s"/>
+      <c r="X13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="s"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>42534.39583333334</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s"/>
+      <c r="M14" t="s"/>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="s"/>
+      <c r="W14" t="s"/>
+      <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>42534.41666666666</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s"/>
+      <c r="M15" t="s"/>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="s"/>
+      <c r="W15" t="s"/>
+      <c r="X15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>42534.4375</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="s"/>
+      <c r="W16" t="s"/>
+      <c r="X16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>42534.52083333334</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" t="s"/>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="s"/>
+      <c r="W17" t="s"/>
+      <c r="X17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>42534.58333333334</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s"/>
+      <c r="M18" t="s"/>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="s"/>
+      <c r="W18" t="s"/>
+      <c r="X18" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>42534.5625</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="H19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s"/>
+      <c r="M19" t="s"/>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="s"/>
+      <c r="W19" t="s"/>
+      <c r="X19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>42535.375</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s"/>
+      <c r="M20" t="s"/>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="s"/>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>42564.05416666667</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="s"/>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="s"/>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>42564.05555555555</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="s"/>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="s"/>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>42564.05555555555</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="s"/>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="s"/>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="s"/>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="s"/>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/worklog.xlsx
+++ b/worklog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>序号</t>
   </si>
@@ -238,7 +238,28 @@
     <t>通，需要修改站址。</t>
   </si>
   <si>
-    <t>2016 / 07 / 13 01:21</t>
+    <t>writelog</t>
+  </si>
+  <si>
+    <t>g)</t>
+  </si>
+  <si>
+    <t>snvlanv;</t>
+  </si>
+  <si>
+    <t>worklogM</t>
+  </si>
+  <si>
+    <t>TTIFULEGIRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> log 您</t>
+  </si>
+  <si>
+    <t>,请问有什么可以帮您:)</t>
+  </si>
+  <si>
+    <t>2016 / 07 / 16 23:33</t>
   </si>
 </sst>
 </file>
@@ -595,7 +616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,8 +1831,8 @@
       <c r="D24" t="s">
         <v>29</v>
       </c>
-      <c r="E24" t="s">
-        <v>74</v>
+      <c r="E24" s="2" t="n">
+        <v>42564.05625</v>
       </c>
       <c r="F24" t="n">
         <v>5</v>
@@ -1842,6 +1863,225 @@
       <c r="X24" t="s"/>
       <c r="Y24" t="s"/>
     </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>42564.91597222222</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="s"/>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="s"/>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>42564.91666666666</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="s"/>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="s"/>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>42564.91944444444</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="s"/>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="s"/>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>42564.92638888889</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="s"/>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="s"/>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s"/>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="s"/>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="s"/>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
